--- a/biology/Zoologie/Diogenidae/Diogenidae.xlsx
+++ b/biology/Zoologie/Diogenidae/Diogenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Diogenidae sont une famille de bernard l'ermite nommée en l'honneur de Diogène de Sinope. Ils ont pour caractéristique d'avoir une pince gauche généralement plus grosse que la droite, ce qui les différencie des Paguridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Diogenidae sont une famille de bernard l'ermite nommée en l'honneur de Diogène de Sinope. Ils ont pour caractéristique d'avoir une pince gauche généralement plus grosse que la droite, ce qui les différencie des Paguridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aniculus ursus
@@ -551,9 +565,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diogène de Sinope vivait dans une jarre. Les diogenidaes ont été nommées en référence comme Diogène à la coquille dans laquelle ils vivent[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diogène de Sinope vivait dans une jarre. Les diogenidaes ont été nommées en référence comme Diogène à la coquille dans laquelle ils vivent.
 </t>
         </is>
       </c>
